--- a/xlsx/country_comparison/list_exp_mean.xlsx
+++ b/xlsx/country_comparison/list_exp_mean.xlsx
@@ -35,16 +35,16 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
+    <t xml:space="preserve">List exp.: NR/GCS/C/O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List exp.: NR/C/O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List exp.: GCS/C/O</t>
+  </si>
+  <si>
     <t xml:space="preserve">List exp.: C/O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List exp.: GCS/C/O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List exp.: NR/C/O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List exp.: NR/GCS/C/O</t>
   </si>
 </sst>
 </file>
@@ -404,22 +404,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.910926205350959</v>
+        <v>1.95572072394667</v>
       </c>
       <c r="C2" t="n">
-        <v>1.11363712713086</v>
+        <v>2.52780478947738</v>
       </c>
       <c r="D2" t="n">
-        <v>1.29297415821355</v>
+        <v>2.78980832908363</v>
       </c>
       <c r="E2" t="n">
-        <v>0.931581478142742</v>
+        <v>2.17878283022247</v>
       </c>
       <c r="F2" t="n">
-        <v>1.08083416372115</v>
+        <v>2.66429365853611</v>
       </c>
       <c r="G2" t="n">
-        <v>1.25453452227073</v>
+        <v>2.58649963757343</v>
       </c>
     </row>
     <row r="3">
@@ -427,22 +427,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1.40098726430966</v>
+        <v>1.40117746977089</v>
       </c>
       <c r="C3" t="n">
-        <v>1.87398941103836</v>
+        <v>1.85219004920533</v>
       </c>
       <c r="D3" t="n">
-        <v>2.0708280327613</v>
+        <v>2.07905099352898</v>
       </c>
       <c r="E3" t="n">
-        <v>1.70749447477815</v>
+        <v>1.63238774908649</v>
       </c>
       <c r="F3" t="n">
-        <v>1.92760940318959</v>
+        <v>1.99676754389218</v>
       </c>
       <c r="G3" t="n">
-        <v>1.83955709804286</v>
+        <v>1.92594993505939</v>
       </c>
     </row>
     <row r="4">
@@ -450,22 +450,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1.40117747407099</v>
+        <v>1.40098726783718</v>
       </c>
       <c r="C4" t="n">
-        <v>1.85219004920533</v>
+        <v>1.87398941103836</v>
       </c>
       <c r="D4" t="n">
-        <v>2.07905099352898</v>
+        <v>2.0708280327613</v>
       </c>
       <c r="E4" t="n">
-        <v>1.63238774908649</v>
+        <v>1.70749447477815</v>
       </c>
       <c r="F4" t="n">
-        <v>1.99676754389218</v>
+        <v>1.92760940318959</v>
       </c>
       <c r="G4" t="n">
-        <v>1.92594993505939</v>
+        <v>1.83955709804286</v>
       </c>
     </row>
     <row r="5">
@@ -473,22 +473,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1.95572073551265</v>
+        <v>0.910926213838564</v>
       </c>
       <c r="C5" t="n">
-        <v>2.52780478947738</v>
+        <v>1.11363712713086</v>
       </c>
       <c r="D5" t="n">
-        <v>2.78980832908363</v>
+        <v>1.29297415821355</v>
       </c>
       <c r="E5" t="n">
-        <v>2.17878283022247</v>
+        <v>0.931581478142742</v>
       </c>
       <c r="F5" t="n">
-        <v>2.66429365853611</v>
+        <v>1.08083416372115</v>
       </c>
       <c r="G5" t="n">
-        <v>2.58649963757343</v>
+        <v>1.25453452227073</v>
       </c>
     </row>
   </sheetData>
